--- a/TPI/Planning.xlsx
+++ b/TPI/Planning.xlsx
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -509,6 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,7 +556,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,128 +875,128 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="37" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="37" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="37" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="41"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="34">
+      <c r="B3" s="36">
         <v>42892</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="31">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="33">
         <v>42893</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33">
         <v>42894</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="31">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="33">
         <v>42895</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="33">
         <v>42898</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="31">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="33">
         <v>42899</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="31">
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33">
         <v>42900</v>
       </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="32">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="34">
         <v>42901</v>
       </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="31">
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="33">
         <v>42902</v>
       </c>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="31">
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="33">
         <v>42905</v>
       </c>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="33"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1220,128 +1221,128 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="37" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="37" t="s">
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="37" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="37" t="s">
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="37" t="s">
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="37" t="s">
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="37" t="s">
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="37" t="s">
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="39"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="41"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>42892</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="31">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="33">
         <v>42893</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="31">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33">
         <v>42894</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="31">
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="33">
         <v>42895</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="31">
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="33">
         <v>42898</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="31">
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="33">
         <v>42899</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="31">
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="33">
         <v>42900</v>
       </c>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="31">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="33">
         <v>42901</v>
       </c>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="31">
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="33">
         <v>42902</v>
       </c>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="31">
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="33">
         <v>42905</v>
       </c>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="33"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="35"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1351,18 +1352,18 @@
       <c r="C13" s="26"/>
       <c r="D13" s="15"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="26"/>
       <c r="M13" s="28"/>
       <c r="N13" s="27"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="27"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
@@ -1395,23 +1396,23 @@
       <c r="B14" s="21"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="21"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="17"/>
+      <c r="U14" s="7"/>
       <c r="V14" s="21"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -1440,22 +1441,22 @@
       <c r="B15" s="21"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="21"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="21"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="17"/>
       <c r="V15" s="21"/>
       <c r="W15" s="16"/>
@@ -1493,15 +1494,14 @@
       <c r="J16" s="21"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
       <c r="N16" s="21"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="21"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="21"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -1529,24 +1529,24 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="29"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="30"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="29"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
